--- a/N_GRAM/Ngram_Statistics.xlsx
+++ b/N_GRAM/Ngram_Statistics.xlsx
@@ -471,7 +471,7 @@
         <v>392179</v>
       </c>
       <c r="E2" t="n">
-        <v>387276</v>
+        <v>387275</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         <v>1.291978805042938</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66835297147476</v>
+        <v>1.654744389679203</v>
       </c>
       <c r="E4" t="n">
-        <v>1.66308524153317</v>
+        <v>1.648895487702537</v>
       </c>
     </row>
     <row r="5">
@@ -544,10 +544,10 @@
         <v>1.291978805042938</v>
       </c>
       <c r="D6" t="n">
-        <v>1.66835297147476</v>
+        <v>1.654744389679203</v>
       </c>
       <c r="E6" t="n">
-        <v>1.66308524153317</v>
+        <v>1.648895487702537</v>
       </c>
     </row>
     <row r="7">
@@ -609,10 +609,10 @@
         <v>1.40171534100598</v>
       </c>
       <c r="D9" t="n">
-        <v>4.745296047483772</v>
+        <v>4.67844810573635</v>
       </c>
       <c r="E9" t="n">
-        <v>4.701583617668013</v>
+        <v>4.632017571323674</v>
       </c>
     </row>
     <row r="10">

--- a/N_GRAM/Ngram_Statistics.xlsx
+++ b/N_GRAM/Ngram_Statistics.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5581</v>
+        <v>5919</v>
       </c>
       <c r="C2" t="n">
-        <v>5473</v>
+        <v>5808</v>
       </c>
       <c r="D2" t="n">
         <v>392179</v>
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>186</v>
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.293674968643612</v>
+        <v>1.272512248690657</v>
       </c>
       <c r="C4" t="n">
-        <v>1.291978805042938</v>
+        <v>1.271349862258953</v>
       </c>
       <c r="D4" t="n">
         <v>1.654744389679203</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.293674968643612</v>
+        <v>1.272512248690657</v>
       </c>
       <c r="C6" t="n">
-        <v>1.291978805042938</v>
+        <v>1.271349862258953</v>
       </c>
       <c r="D6" t="n">
         <v>1.654744389679203</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.393769207328192</v>
+        <v>1.340446132276605</v>
       </c>
       <c r="C9" t="n">
-        <v>1.40171534100598</v>
+        <v>1.347899693264722</v>
       </c>
       <c r="D9" t="n">
         <v>4.67844810573635</v>
